--- a/database/industries/ghaza/ghezar/product/yearly_seprated.xlsx
+++ b/database/industries/ghaza/ghezar/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghezar\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghezar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194144E3-6F20-480A-BCE7-894A3D3409FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941B4380-1483-4E1E-8D96-6E5DDE0A4081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="59">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -679,12 +679,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -694,7 +694,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -706,7 +706,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -728,7 +728,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -762,7 +762,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -784,7 +784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -794,7 +794,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -806,7 +806,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -820,17 +820,17 @@
       <c r="F11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="G11" s="11">
         <v>6783</v>
       </c>
+      <c r="H11" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I11" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -841,20 +841,20 @@
       <c r="E12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="F12" s="13">
         <v>2209</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>13</v>
+      <c r="G12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="13">
+        <v>4569</v>
       </c>
       <c r="I12" s="13">
-        <v>4569</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7936</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -865,20 +865,20 @@
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="F13" s="11">
         <v>364</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>13</v>
+      <c r="G13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -889,20 +889,20 @@
       <c r="E14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="F14" s="13">
         <v>124979</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>13</v>
+      <c r="G14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="13">
+        <v>156755</v>
       </c>
       <c r="I14" s="13">
-        <v>156755</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>110067</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -913,20 +913,20 @@
       <c r="E15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="F15" s="11">
         <v>27824</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>13</v>
+      <c r="G15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="11">
+        <v>36699</v>
       </c>
       <c r="I15" s="11">
-        <v>36699</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32502</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -937,20 +937,20 @@
       <c r="E16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="F16" s="13">
         <v>1972</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>13</v>
+      <c r="G16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -961,20 +961,20 @@
       <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="F17" s="11">
         <v>1435</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>13</v>
+      <c r="G17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -985,20 +985,20 @@
       <c r="E18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="F18" s="13">
         <v>2671</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>13</v>
+      <c r="G18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
       </c>
       <c r="I18" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1009,20 +1009,20 @@
       <c r="E19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="F19" s="11">
         <v>1195</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>13</v>
+      <c r="G19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
@@ -1033,20 +1033,20 @@
       <c r="E20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13">
+      <c r="F20" s="13">
         <v>2860</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>13</v>
+      <c r="G20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
       </c>
       <c r="I20" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1060,17 +1060,17 @@
       <c r="F21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="11">
+      <c r="G21" s="11">
         <v>146627</v>
       </c>
+      <c r="H21" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I21" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
@@ -1084,17 +1084,17 @@
       <c r="F22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>13</v>
+      <c r="G22" s="13">
+        <v>5621</v>
       </c>
       <c r="H22" s="13">
-        <v>5621</v>
+        <v>5197</v>
       </c>
       <c r="I22" s="13">
-        <v>5197</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1108,17 +1108,17 @@
       <c r="F23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="11">
+      <c r="G23" s="11">
         <v>31652</v>
       </c>
+      <c r="H23" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I23" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>26</v>
       </c>
@@ -1128,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="15">
-        <v>0</v>
+        <v>165509</v>
       </c>
       <c r="G24" s="15">
-        <v>165509</v>
+        <v>190683</v>
       </c>
       <c r="H24" s="15">
-        <v>190683</v>
+        <v>203220</v>
       </c>
       <c r="I24" s="15">
-        <v>203220</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>155608</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>27</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>11</v>
       </c>
@@ -1166,8 +1166,8 @@
       <c r="F26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>13</v>
+      <c r="G26" s="11">
+        <v>0</v>
       </c>
       <c r="H26" s="11">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>16</v>
       </c>
@@ -1187,12 +1187,12 @@
       <c r="E27" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="13">
+      <c r="F27" s="13">
         <v>12823</v>
       </c>
+      <c r="G27" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" s="13" t="s">
         <v>13</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
@@ -1211,12 +1211,12 @@
       <c r="E28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="11">
+      <c r="F28" s="11">
         <v>2209</v>
       </c>
+      <c r="G28" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" s="11" t="s">
         <v>13</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>18</v>
       </c>
@@ -1235,12 +1235,12 @@
       <c r="E29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="13">
+      <c r="F29" s="13">
         <v>57</v>
       </c>
+      <c r="G29" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" s="13" t="s">
         <v>13</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>19</v>
       </c>
@@ -1259,12 +1259,12 @@
       <c r="E30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="11">
+      <c r="F30" s="11">
         <v>1592</v>
       </c>
+      <c r="G30" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" s="11" t="s">
         <v>13</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>21</v>
       </c>
@@ -1283,11 +1283,11 @@
       <c r="E31" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="13">
-        <v>0</v>
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>13</v>
@@ -1296,7 +1296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>22</v>
       </c>
@@ -1307,12 +1307,12 @@
       <c r="E32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="F32" s="11">
         <v>130</v>
       </c>
+      <c r="G32" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" s="11" t="s">
         <v>13</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>23</v>
       </c>
@@ -1334,17 +1334,17 @@
       <c r="F33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>13</v>
+      <c r="G33" s="13">
+        <v>21561</v>
       </c>
       <c r="H33" s="13">
-        <v>21561</v>
+        <v>27258</v>
       </c>
       <c r="I33" s="13">
-        <v>27258</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9351</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>28</v>
       </c>
@@ -1361,14 +1361,14 @@
       <c r="G34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>13</v>
+      <c r="H34" s="11">
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>24</v>
       </c>
@@ -1382,17 +1382,17 @@
       <c r="F35" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="13" t="s">
-        <v>13</v>
+      <c r="G35" s="13">
+        <v>108</v>
       </c>
       <c r="H35" s="13">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="I35" s="13">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>25</v>
       </c>
@@ -1406,17 +1406,17 @@
       <c r="F36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>13</v>
+      <c r="G36" s="11">
+        <v>5496</v>
       </c>
       <c r="H36" s="11">
-        <v>5496</v>
+        <v>7317</v>
       </c>
       <c r="I36" s="11">
-        <v>7317</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6853</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>29</v>
       </c>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="F37" s="15">
-        <v>0</v>
+        <v>16811</v>
       </c>
       <c r="G37" s="15">
-        <v>16811</v>
+        <v>27165</v>
       </c>
       <c r="H37" s="15">
-        <v>27165</v>
+        <v>34781</v>
       </c>
       <c r="I37" s="15">
-        <v>34781</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16247</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>30</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
         <v>31</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>32</v>
       </c>
@@ -1483,20 +1483,20 @@
       <c r="E40" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="15" t="s">
-        <v>13</v>
+      <c r="F40" s="15">
+        <v>-1309</v>
       </c>
       <c r="G40" s="15">
-        <v>-1309</v>
-      </c>
-      <c r="H40" s="15">
         <v>-2777</v>
       </c>
+      <c r="H40" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="I40" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>34</v>
       </c>
@@ -1505,8 +1505,8 @@
       <c r="E41" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="19" t="s">
-        <v>13</v>
+      <c r="F41" s="19">
+        <v>0</v>
       </c>
       <c r="G41" s="19">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>35</v>
       </c>
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="F42" s="15">
-        <v>0</v>
+        <v>181011</v>
       </c>
       <c r="G42" s="15">
-        <v>181011</v>
+        <v>215071</v>
       </c>
       <c r="H42" s="15">
-        <v>215071</v>
+        <v>238001</v>
       </c>
       <c r="I42" s="15">
-        <v>238001</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>171855</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1550,7 +1550,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1560,7 +1560,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1570,7 +1570,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>36</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1602,7 +1602,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>37</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>11</v>
       </c>
@@ -1628,17 +1628,17 @@
       <c r="F49" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="11">
+      <c r="G49" s="11">
         <v>1723373</v>
       </c>
+      <c r="H49" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I49" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>14</v>
       </c>
@@ -1649,20 +1649,20 @@
       <c r="E50" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="13">
+      <c r="F50" s="13">
         <v>345526</v>
       </c>
-      <c r="H50" s="13" t="s">
-        <v>13</v>
+      <c r="G50" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="13">
+        <v>1949047</v>
       </c>
       <c r="I50" s="13">
-        <v>1949047</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4128415</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>15</v>
       </c>
@@ -1673,20 +1673,20 @@
       <c r="E51" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="11">
+      <c r="F51" s="11">
         <v>29751</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>13</v>
+      <c r="G51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
       </c>
       <c r="I51" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>16</v>
       </c>
@@ -1697,20 +1697,20 @@
       <c r="E52" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="13">
+      <c r="F52" s="13">
         <v>6056144</v>
       </c>
-      <c r="H52" s="13" t="s">
-        <v>13</v>
+      <c r="G52" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="13">
+        <v>12730033</v>
       </c>
       <c r="I52" s="13">
-        <v>12730033</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27405949</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>17</v>
       </c>
@@ -1721,20 +1721,20 @@
       <c r="E53" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="11">
+      <c r="F53" s="11">
         <v>1595209</v>
       </c>
-      <c r="H53" s="11" t="s">
-        <v>13</v>
+      <c r="G53" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="11">
+        <v>3881530</v>
       </c>
       <c r="I53" s="11">
-        <v>3881530</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10194015</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>18</v>
       </c>
@@ -1745,20 +1745,20 @@
       <c r="E54" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="13">
+      <c r="F54" s="13">
         <v>263524</v>
       </c>
-      <c r="H54" s="13" t="s">
-        <v>13</v>
+      <c r="G54" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="13">
+        <v>0</v>
       </c>
       <c r="I54" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>19</v>
       </c>
@@ -1769,20 +1769,20 @@
       <c r="E55" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="11">
+      <c r="F55" s="11">
         <v>124869</v>
       </c>
-      <c r="H55" s="11" t="s">
-        <v>13</v>
+      <c r="G55" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
       </c>
       <c r="I55" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>20</v>
       </c>
@@ -1793,20 +1793,20 @@
       <c r="E56" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="13">
+      <c r="F56" s="13">
         <v>133669</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>13</v>
+      <c r="G56" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="13">
+        <v>0</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>21</v>
       </c>
@@ -1817,20 +1817,20 @@
       <c r="E57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="11">
+      <c r="F57" s="11">
         <v>175867</v>
       </c>
-      <c r="H57" s="11" t="s">
-        <v>13</v>
+      <c r="G57" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0</v>
       </c>
       <c r="I57" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>22</v>
       </c>
@@ -1841,20 +1841,20 @@
       <c r="E58" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="13">
+      <c r="F58" s="13">
         <v>193064</v>
       </c>
-      <c r="H58" s="13" t="s">
-        <v>13</v>
+      <c r="G58" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="13">
+        <v>0</v>
       </c>
       <c r="I58" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>23</v>
       </c>
@@ -1868,17 +1868,17 @@
       <c r="F59" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="11">
+      <c r="G59" s="11">
         <v>10989705</v>
       </c>
+      <c r="H59" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I59" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>24</v>
       </c>
@@ -1892,17 +1892,17 @@
       <c r="F60" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="13" t="s">
-        <v>13</v>
+      <c r="G60" s="13">
+        <v>1039805</v>
       </c>
       <c r="H60" s="13">
-        <v>1039805</v>
+        <v>980675</v>
       </c>
       <c r="I60" s="13">
-        <v>980675</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2147853</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>25</v>
       </c>
@@ -1916,17 +1916,17 @@
       <c r="F61" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="11">
+      <c r="G61" s="11">
         <v>3073429</v>
       </c>
+      <c r="H61" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I61" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
         <v>26</v>
       </c>
@@ -1936,19 +1936,19 @@
         <v>0</v>
       </c>
       <c r="F62" s="15">
-        <v>0</v>
+        <v>8917623</v>
       </c>
       <c r="G62" s="15">
-        <v>8917623</v>
+        <v>16826312</v>
       </c>
       <c r="H62" s="15">
-        <v>16826312</v>
+        <v>19541285</v>
       </c>
       <c r="I62" s="15">
-        <v>19541285</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>43876232</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>39</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>11</v>
       </c>
@@ -1974,8 +1974,8 @@
       <c r="F64" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="11" t="s">
-        <v>13</v>
+      <c r="G64" s="11">
+        <v>0</v>
       </c>
       <c r="H64" s="11">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>16</v>
       </c>
@@ -1995,12 +1995,12 @@
       <c r="E65" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="13">
+      <c r="F65" s="13">
         <v>667999</v>
       </c>
+      <c r="G65" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" s="13" t="s">
         <v>13</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>17</v>
       </c>
@@ -2019,12 +2019,12 @@
       <c r="E66" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="11">
+      <c r="F66" s="11">
         <v>121725</v>
       </c>
+      <c r="G66" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" s="11" t="s">
         <v>13</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>18</v>
       </c>
@@ -2043,12 +2043,12 @@
       <c r="E67" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="13">
+      <c r="F67" s="13">
         <v>8809</v>
       </c>
+      <c r="G67" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" s="13" t="s">
         <v>13</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>19</v>
       </c>
@@ -2067,12 +2067,12 @@
       <c r="E68" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="11">
+      <c r="F68" s="11">
         <v>119287</v>
       </c>
+      <c r="G68" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" s="11" t="s">
         <v>13</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>21</v>
       </c>
@@ -2091,11 +2091,11 @@
       <c r="E69" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="13">
-        <v>0</v>
+      <c r="F69" s="13">
+        <v>0</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H69" s="13" t="s">
         <v>13</v>
@@ -2104,7 +2104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>22</v>
       </c>
@@ -2115,12 +2115,12 @@
       <c r="E70" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="11">
+      <c r="F70" s="11">
         <v>10887</v>
       </c>
+      <c r="G70" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" s="11" t="s">
         <v>13</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>23</v>
       </c>
@@ -2142,17 +2142,17 @@
       <c r="F71" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G71" s="13" t="s">
-        <v>13</v>
+      <c r="G71" s="13">
+        <v>1884874</v>
       </c>
       <c r="H71" s="13">
-        <v>1884874</v>
+        <v>2638664</v>
       </c>
       <c r="I71" s="13">
-        <v>2638664</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1302411</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>28</v>
       </c>
@@ -2169,14 +2169,14 @@
       <c r="G72" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H72" s="11" t="s">
-        <v>13</v>
+      <c r="H72" s="11">
+        <v>0</v>
       </c>
       <c r="I72" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>24</v>
       </c>
@@ -2190,17 +2190,17 @@
       <c r="F73" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G73" s="13" t="s">
-        <v>13</v>
+      <c r="G73" s="13">
+        <v>27646</v>
       </c>
       <c r="H73" s="13">
-        <v>27646</v>
+        <v>56357</v>
       </c>
       <c r="I73" s="13">
-        <v>56357</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9213</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>25</v>
       </c>
@@ -2214,17 +2214,17 @@
       <c r="F74" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G74" s="11" t="s">
-        <v>13</v>
+      <c r="G74" s="11">
+        <v>483981</v>
       </c>
       <c r="H74" s="11">
-        <v>483981</v>
+        <v>734163</v>
       </c>
       <c r="I74" s="11">
-        <v>734163</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1148506</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>29</v>
       </c>
@@ -2234,19 +2234,19 @@
         <v>0</v>
       </c>
       <c r="F75" s="15">
-        <v>0</v>
+        <v>928707</v>
       </c>
       <c r="G75" s="15">
-        <v>928707</v>
+        <v>2396501</v>
       </c>
       <c r="H75" s="15">
-        <v>2396501</v>
+        <v>3429184</v>
       </c>
       <c r="I75" s="15">
-        <v>3429184</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2460130</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="16" t="s">
         <v>40</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="18" t="s">
         <v>31</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="14" t="s">
         <v>32</v>
       </c>
@@ -2291,20 +2291,20 @@
       <c r="E78" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="15" t="s">
-        <v>13</v>
+      <c r="F78" s="15">
+        <v>-117730</v>
       </c>
       <c r="G78" s="15">
-        <v>-117730</v>
-      </c>
-      <c r="H78" s="15">
         <v>-240049</v>
       </c>
+      <c r="H78" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="I78" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="18" t="s">
         <v>34</v>
       </c>
@@ -2315,8 +2315,8 @@
       <c r="E79" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="19" t="s">
-        <v>13</v>
+      <c r="F79" s="19">
+        <v>0</v>
       </c>
       <c r="G79" s="19">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
         <v>35</v>
       </c>
@@ -2338,19 +2338,19 @@
         <v>0</v>
       </c>
       <c r="F80" s="15">
-        <v>0</v>
+        <v>9728600</v>
       </c>
       <c r="G80" s="15">
-        <v>9728600</v>
+        <v>18982764</v>
       </c>
       <c r="H80" s="15">
-        <v>18982764</v>
+        <v>22970469</v>
       </c>
       <c r="I80" s="15">
-        <v>22970469</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46336362</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2360,7 +2360,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2370,7 +2370,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2380,7 +2380,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B84" s="7" t="s">
         <v>41</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2412,7 +2412,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>42</v>
       </c>
@@ -2424,7 +2424,7 @@
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>11</v>
       </c>
@@ -2438,17 +2438,17 @@
       <c r="F87" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G87" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="11">
+      <c r="G87" s="11">
         <v>254072387</v>
       </c>
+      <c r="H87" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I87" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>14</v>
       </c>
@@ -2459,20 +2459,20 @@
       <c r="E88" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="13">
+      <c r="F88" s="13">
         <v>156417383</v>
       </c>
-      <c r="H88" s="13" t="s">
-        <v>13</v>
+      <c r="G88" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="13">
+        <v>426580652</v>
       </c>
       <c r="I88" s="13">
-        <v>426580652</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>520213584</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>15</v>
       </c>
@@ -2483,20 +2483,20 @@
       <c r="E89" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="11">
+      <c r="F89" s="11">
         <v>81733516</v>
       </c>
-      <c r="H89" s="11" t="s">
-        <v>13</v>
+      <c r="G89" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="11">
+        <v>0</v>
       </c>
       <c r="I89" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>16</v>
       </c>
@@ -2507,20 +2507,20 @@
       <c r="E90" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F90" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="13">
+      <c r="F90" s="13">
         <v>48457293</v>
       </c>
-      <c r="H90" s="13" t="s">
-        <v>13</v>
+      <c r="G90" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="13">
+        <v>81209741</v>
       </c>
       <c r="I90" s="13">
-        <v>81209741</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>248993331</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>17</v>
       </c>
@@ -2531,20 +2531,20 @@
       <c r="E91" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F91" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="11">
+      <c r="F91" s="11">
         <v>57332123</v>
       </c>
-      <c r="H91" s="11" t="s">
-        <v>13</v>
+      <c r="G91" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="11">
+        <v>105766642</v>
       </c>
       <c r="I91" s="11">
-        <v>105766642</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>313642699</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>18</v>
       </c>
@@ -2555,20 +2555,20 @@
       <c r="E92" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="13">
+      <c r="F92" s="13">
         <v>133632860</v>
       </c>
-      <c r="H92" s="13" t="s">
-        <v>13</v>
+      <c r="G92" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="13">
+        <v>0</v>
       </c>
       <c r="I92" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>19</v>
       </c>
@@ -2579,20 +2579,20 @@
       <c r="E93" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F93" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="11">
+      <c r="F93" s="11">
         <v>87016725</v>
       </c>
-      <c r="H93" s="11" t="s">
-        <v>13</v>
+      <c r="G93" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="11">
+        <v>0</v>
       </c>
       <c r="I93" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>20</v>
       </c>
@@ -2603,20 +2603,20 @@
       <c r="E94" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F94" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="13">
+      <c r="F94" s="13">
         <v>50044553</v>
       </c>
-      <c r="H94" s="13" t="s">
-        <v>13</v>
+      <c r="G94" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="13">
+        <v>0</v>
       </c>
       <c r="I94" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>21</v>
       </c>
@@ -2627,20 +2627,20 @@
       <c r="E95" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="11">
+      <c r="F95" s="11">
         <v>147169038</v>
       </c>
-      <c r="H95" s="11" t="s">
-        <v>13</v>
+      <c r="G95" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="11">
+        <v>0</v>
       </c>
       <c r="I95" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>22</v>
       </c>
@@ -2651,20 +2651,20 @@
       <c r="E96" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="13">
+      <c r="F96" s="13">
         <v>67504895</v>
       </c>
-      <c r="H96" s="13" t="s">
-        <v>13</v>
+      <c r="G96" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="13">
+        <v>0</v>
       </c>
       <c r="I96" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>23</v>
       </c>
@@ -2678,17 +2678,17 @@
       <c r="F97" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="11">
+      <c r="G97" s="11">
         <v>74950077</v>
       </c>
+      <c r="H97" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I97" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>24</v>
       </c>
@@ -2702,17 +2702,17 @@
       <c r="F98" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G98" s="13" t="s">
-        <v>13</v>
+      <c r="G98" s="13">
+        <v>184985768</v>
       </c>
       <c r="H98" s="13">
-        <v>184985768</v>
+        <v>188700212</v>
       </c>
       <c r="I98" s="13">
-        <v>188700212</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>420900059</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>25</v>
       </c>
@@ -2726,17 +2726,17 @@
       <c r="F99" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="11">
+      <c r="G99" s="11">
         <v>97100626</v>
       </c>
+      <c r="H99" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I99" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>44</v>
       </c>
@@ -2748,7 +2748,7 @@
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>11</v>
       </c>
@@ -2762,8 +2762,8 @@
       <c r="F101" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G101" s="11" t="s">
-        <v>13</v>
+      <c r="G101" s="11">
+        <v>0</v>
       </c>
       <c r="H101" s="11">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>16</v>
       </c>
@@ -2783,12 +2783,12 @@
       <c r="E102" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F102" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="13">
+      <c r="F102" s="13">
         <v>52093816</v>
       </c>
+      <c r="G102" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" s="13" t="s">
         <v>13</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>17</v>
       </c>
@@ -2807,12 +2807,12 @@
       <c r="E103" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="11">
+      <c r="F103" s="11">
         <v>55104120</v>
       </c>
+      <c r="G103" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" s="11" t="s">
         <v>13</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>18</v>
       </c>
@@ -2831,12 +2831,12 @@
       <c r="E104" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="13">
+      <c r="F104" s="13">
         <v>154543860</v>
       </c>
+      <c r="G104" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" s="13" t="s">
         <v>13</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>19</v>
       </c>
@@ -2855,12 +2855,12 @@
       <c r="E105" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="11">
+      <c r="F105" s="11">
         <v>74929020</v>
       </c>
+      <c r="G105" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" s="11" t="s">
         <v>13</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>21</v>
       </c>
@@ -2879,11 +2879,11 @@
       <c r="E106" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F106" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="13">
-        <v>0</v>
+      <c r="F106" s="13">
+        <v>0</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H106" s="13" t="s">
         <v>13</v>
@@ -2892,7 +2892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>22</v>
       </c>
@@ -2903,12 +2903,12 @@
       <c r="E107" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F107" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="11">
+      <c r="F107" s="11">
         <v>83746154</v>
       </c>
+      <c r="G107" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" s="11" t="s">
         <v>13</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>23</v>
       </c>
@@ -2930,17 +2930,17 @@
       <c r="F108" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G108" s="13" t="s">
-        <v>13</v>
+      <c r="G108" s="13">
+        <v>87420528</v>
       </c>
       <c r="H108" s="13">
-        <v>87420528</v>
+        <v>96803287</v>
       </c>
       <c r="I108" s="13">
-        <v>96803287</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>139280398</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>28</v>
       </c>
@@ -2957,14 +2957,14 @@
       <c r="G109" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H109" s="11" t="s">
-        <v>13</v>
+      <c r="H109" s="11">
+        <v>0</v>
       </c>
       <c r="I109" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>24</v>
       </c>
@@ -2978,17 +2978,17 @@
       <c r="F110" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G110" s="13" t="s">
-        <v>13</v>
+      <c r="G110" s="13">
+        <v>255981481</v>
       </c>
       <c r="H110" s="13">
-        <v>255981481</v>
+        <v>273577670</v>
       </c>
       <c r="I110" s="13">
-        <v>273577670</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>214255814</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>25</v>
       </c>
@@ -3002,17 +3002,17 @@
       <c r="F111" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G111" s="11" t="s">
-        <v>13</v>
+      <c r="G111" s="11">
+        <v>88060590</v>
       </c>
       <c r="H111" s="11">
-        <v>88060590</v>
+        <v>100336613</v>
       </c>
       <c r="I111" s="11">
-        <v>100336613</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>167591712</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3022,7 +3022,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3032,7 +3032,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3042,7 +3042,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>45</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3074,7 +3074,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>46</v>
       </c>
@@ -3086,7 +3086,7 @@
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>11</v>
       </c>
@@ -3100,17 +3100,17 @@
       <c r="F118" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G118" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" s="11">
+      <c r="G118" s="11">
         <v>-954004</v>
       </c>
+      <c r="H118" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I118" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="12" t="s">
         <v>14</v>
       </c>
@@ -3121,20 +3121,20 @@
       <c r="E119" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F119" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="13">
+      <c r="F119" s="13">
         <v>-232289</v>
       </c>
-      <c r="H119" s="13" t="s">
-        <v>13</v>
+      <c r="G119" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="13">
+        <v>-1033342</v>
       </c>
       <c r="I119" s="13">
-        <v>-1033342</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3826992</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>15</v>
       </c>
@@ -3145,20 +3145,20 @@
       <c r="E120" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" s="11">
+      <c r="F120" s="11">
         <v>-18244</v>
       </c>
-      <c r="H120" s="11" t="s">
-        <v>13</v>
+      <c r="G120" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" s="11">
+        <v>0</v>
       </c>
       <c r="I120" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="12" t="s">
         <v>16</v>
       </c>
@@ -3169,20 +3169,20 @@
       <c r="E121" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F121" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="13">
+      <c r="F121" s="13">
         <v>-3552980</v>
       </c>
-      <c r="H121" s="13" t="s">
-        <v>13</v>
+      <c r="G121" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="13">
+        <v>-8932259</v>
       </c>
       <c r="I121" s="13">
-        <v>-8932259</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-20247448</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>17</v>
       </c>
@@ -3193,20 +3193,20 @@
       <c r="E122" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F122" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" s="11">
+      <c r="F122" s="11">
         <v>-907797</v>
       </c>
-      <c r="H122" s="11" t="s">
-        <v>13</v>
+      <c r="G122" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" s="11">
+        <v>-2603851</v>
       </c>
       <c r="I122" s="11">
-        <v>-2603851</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-6673776</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="12" t="s">
         <v>18</v>
       </c>
@@ -3217,20 +3217,20 @@
       <c r="E123" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F123" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" s="13">
+      <c r="F123" s="13">
         <v>-112721</v>
       </c>
-      <c r="H123" s="13" t="s">
-        <v>13</v>
+      <c r="G123" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" s="13">
+        <v>0</v>
       </c>
       <c r="I123" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>19</v>
       </c>
@@ -3241,20 +3241,20 @@
       <c r="E124" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" s="11">
+      <c r="F124" s="11">
         <v>-58201</v>
       </c>
-      <c r="H124" s="11" t="s">
-        <v>13</v>
+      <c r="G124" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" s="11">
+        <v>0</v>
       </c>
       <c r="I124" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="12" t="s">
         <v>20</v>
       </c>
@@ -3265,20 +3265,20 @@
       <c r="E125" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F125" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" s="13">
+      <c r="F125" s="13">
         <v>-77122</v>
       </c>
-      <c r="H125" s="13" t="s">
-        <v>13</v>
+      <c r="G125" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" s="13">
+        <v>0</v>
       </c>
       <c r="I125" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>21</v>
       </c>
@@ -3289,20 +3289,20 @@
       <c r="E126" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F126" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" s="11">
+      <c r="F126" s="11">
         <v>-87779</v>
       </c>
-      <c r="H126" s="11" t="s">
-        <v>13</v>
+      <c r="G126" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="11">
+        <v>0</v>
       </c>
       <c r="I126" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>22</v>
       </c>
@@ -3313,20 +3313,20 @@
       <c r="E127" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F127" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" s="13">
+      <c r="F127" s="13">
         <v>-116085</v>
       </c>
-      <c r="H127" s="13" t="s">
-        <v>13</v>
+      <c r="G127" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" s="13">
+        <v>0</v>
       </c>
       <c r="I127" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>23</v>
       </c>
@@ -3340,17 +3340,17 @@
       <c r="F128" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G128" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128" s="11">
+      <c r="G128" s="11">
         <v>-6250012</v>
       </c>
+      <c r="H128" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I128" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="12" t="s">
         <v>24</v>
       </c>
@@ -3364,17 +3364,17 @@
       <c r="F129" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G129" s="13" t="s">
-        <v>13</v>
+      <c r="G129" s="13">
+        <v>-468940</v>
       </c>
       <c r="H129" s="13">
-        <v>-468940</v>
+        <v>-607600</v>
       </c>
       <c r="I129" s="13">
-        <v>-607600</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1383012</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>25</v>
       </c>
@@ -3388,17 +3388,17 @@
       <c r="F130" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G130" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" s="11">
+      <c r="G130" s="11">
         <v>-1634559</v>
       </c>
+      <c r="H130" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I130" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
         <v>47</v>
       </c>
@@ -3408,19 +3408,19 @@
         <v>0</v>
       </c>
       <c r="F131" s="15">
-        <v>0</v>
+        <v>-5163218</v>
       </c>
       <c r="G131" s="15">
-        <v>-5163218</v>
+        <v>-9307515</v>
       </c>
       <c r="H131" s="15">
-        <v>-9307515</v>
+        <v>-13177052</v>
       </c>
       <c r="I131" s="15">
-        <v>-13177052</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-32131228</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
         <v>48</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>11</v>
       </c>
@@ -3446,8 +3446,8 @@
       <c r="F133" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G133" s="11" t="s">
-        <v>13</v>
+      <c r="G133" s="11">
+        <v>0</v>
       </c>
       <c r="H133" s="11">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="12" t="s">
         <v>16</v>
       </c>
@@ -3467,12 +3467,12 @@
       <c r="E134" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F134" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" s="13">
+      <c r="F134" s="13">
         <v>-364550</v>
       </c>
+      <c r="G134" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" s="13" t="s">
         <v>13</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>17</v>
       </c>
@@ -3491,12 +3491,12 @@
       <c r="E135" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F135" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" s="11">
+      <c r="F135" s="11">
         <v>-72075</v>
       </c>
+      <c r="G135" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H135" s="11" t="s">
         <v>13</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="12" t="s">
         <v>18</v>
       </c>
@@ -3515,12 +3515,12 @@
       <c r="E136" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" s="13">
+      <c r="F136" s="13">
         <v>-3264</v>
       </c>
+      <c r="G136" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" s="13" t="s">
         <v>13</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>19</v>
       </c>
@@ -3539,12 +3539,12 @@
       <c r="E137" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F137" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" s="11">
+      <c r="F137" s="11">
         <v>-64570</v>
       </c>
+      <c r="G137" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" s="11" t="s">
         <v>13</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="12" t="s">
         <v>21</v>
       </c>
@@ -3563,11 +3563,11 @@
       <c r="E138" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F138" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" s="13">
-        <v>0</v>
+      <c r="F138" s="13">
+        <v>0</v>
+      </c>
+      <c r="G138" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H138" s="13" t="s">
         <v>13</v>
@@ -3576,7 +3576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>22</v>
       </c>
@@ -3587,12 +3587,12 @@
       <c r="E139" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F139" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" s="11">
+      <c r="F139" s="11">
         <v>-5267</v>
       </c>
+      <c r="G139" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H139" s="11" t="s">
         <v>13</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="12" t="s">
         <v>23</v>
       </c>
@@ -3614,17 +3614,17 @@
       <c r="F140" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G140" s="13" t="s">
-        <v>13</v>
+      <c r="G140" s="13">
+        <v>-919049</v>
       </c>
       <c r="H140" s="13">
-        <v>-919049</v>
+        <v>-1553253</v>
       </c>
       <c r="I140" s="13">
-        <v>-1553253</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1720169</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>28</v>
       </c>
@@ -3641,14 +3641,14 @@
       <c r="G141" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H141" s="11" t="s">
-        <v>13</v>
+      <c r="H141" s="11">
+        <v>0</v>
       </c>
       <c r="I141" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="12" t="s">
         <v>24</v>
       </c>
@@ -3662,17 +3662,17 @@
       <c r="F142" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G142" s="13" t="s">
-        <v>13</v>
+      <c r="G142" s="13">
+        <v>-8972</v>
       </c>
       <c r="H142" s="13">
-        <v>-8972</v>
+        <v>-23718</v>
       </c>
       <c r="I142" s="13">
-        <v>-23718</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-11654</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>25</v>
       </c>
@@ -3686,17 +3686,17 @@
       <c r="F143" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G143" s="11" t="s">
-        <v>13</v>
+      <c r="G143" s="11">
+        <v>-283807</v>
       </c>
       <c r="H143" s="11">
-        <v>-283807</v>
+        <v>-519124</v>
       </c>
       <c r="I143" s="11">
-        <v>-519124</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1407156</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="14" t="s">
         <v>49</v>
       </c>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="F144" s="15">
-        <v>0</v>
+        <v>-509726</v>
       </c>
       <c r="G144" s="15">
-        <v>-509726</v>
+        <v>-1211828</v>
       </c>
       <c r="H144" s="15">
-        <v>-1211828</v>
+        <v>-2096095</v>
       </c>
       <c r="I144" s="15">
-        <v>-2096095</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3138979</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="16" t="s">
         <v>50</v>
       </c>
@@ -3730,7 +3730,7 @@
       <c r="H145" s="17"/>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="18" t="s">
         <v>51</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="14" t="s">
         <v>32</v>
       </c>
@@ -3763,20 +3763,20 @@
       <c r="E147" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F147" s="15" t="s">
-        <v>13</v>
+      <c r="F147" s="15">
+        <v>0</v>
       </c>
       <c r="G147" s="15">
         <v>0</v>
       </c>
-      <c r="H147" s="15">
-        <v>0</v>
+      <c r="H147" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="I147" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="18" t="s">
         <v>34</v>
       </c>
@@ -3787,8 +3787,8 @@
       <c r="E148" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F148" s="19" t="s">
-        <v>13</v>
+      <c r="F148" s="19">
+        <v>0</v>
       </c>
       <c r="G148" s="19">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="14" t="s">
         <v>35</v>
       </c>
@@ -3810,19 +3810,19 @@
         <v>0</v>
       </c>
       <c r="F149" s="15">
-        <v>0</v>
+        <v>-5672944</v>
       </c>
       <c r="G149" s="15">
-        <v>-5672944</v>
+        <v>-10519343</v>
       </c>
       <c r="H149" s="15">
-        <v>-10519343</v>
+        <v>-15273147</v>
       </c>
       <c r="I149" s="15">
-        <v>-15273147</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-35270207</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3832,7 +3832,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3842,7 +3842,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3852,7 +3852,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
         <v>52</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3884,7 +3884,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>53</v>
       </c>
@@ -3896,7 +3896,7 @@
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>11</v>
       </c>
@@ -3910,17 +3910,17 @@
       <c r="F156" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G156" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H156" s="11">
+      <c r="G156" s="11">
         <v>769369</v>
       </c>
+      <c r="H156" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I156" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="12" t="s">
         <v>14</v>
       </c>
@@ -3931,20 +3931,20 @@
       <c r="E157" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F157" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G157" s="13">
+      <c r="F157" s="13">
         <v>113237</v>
       </c>
-      <c r="H157" s="13" t="s">
-        <v>13</v>
+      <c r="G157" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H157" s="13">
+        <v>915705</v>
       </c>
       <c r="I157" s="13">
-        <v>915705</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+        <v>301423</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>15</v>
       </c>
@@ -3955,20 +3955,20 @@
       <c r="E158" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F158" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G158" s="11">
+      <c r="F158" s="11">
         <v>11507</v>
       </c>
-      <c r="H158" s="11" t="s">
-        <v>13</v>
+      <c r="G158" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H158" s="11">
+        <v>0</v>
       </c>
       <c r="I158" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="12" t="s">
         <v>16</v>
       </c>
@@ -3979,20 +3979,20 @@
       <c r="E159" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F159" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G159" s="13">
+      <c r="F159" s="13">
         <v>2503164</v>
       </c>
-      <c r="H159" s="13" t="s">
-        <v>13</v>
+      <c r="G159" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H159" s="13">
+        <v>3797774</v>
       </c>
       <c r="I159" s="13">
-        <v>3797774</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7158501</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>17</v>
       </c>
@@ -4003,20 +4003,20 @@
       <c r="E160" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F160" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G160" s="11">
+      <c r="F160" s="11">
         <v>687412</v>
       </c>
-      <c r="H160" s="11" t="s">
-        <v>13</v>
+      <c r="G160" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" s="11">
+        <v>1277679</v>
       </c>
       <c r="I160" s="11">
-        <v>1277679</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3520239</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="12" t="s">
         <v>18</v>
       </c>
@@ -4027,20 +4027,20 @@
       <c r="E161" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F161" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G161" s="13">
+      <c r="F161" s="13">
         <v>150803</v>
       </c>
-      <c r="H161" s="13" t="s">
-        <v>13</v>
+      <c r="G161" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H161" s="13">
+        <v>0</v>
       </c>
       <c r="I161" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>19</v>
       </c>
@@ -4051,20 +4051,20 @@
       <c r="E162" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F162" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" s="11">
+      <c r="F162" s="11">
         <v>66668</v>
       </c>
-      <c r="H162" s="11" t="s">
-        <v>13</v>
+      <c r="G162" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" s="11">
+        <v>0</v>
       </c>
       <c r="I162" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="12" t="s">
         <v>20</v>
       </c>
@@ -4075,20 +4075,20 @@
       <c r="E163" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F163" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G163" s="13">
+      <c r="F163" s="13">
         <v>56547</v>
       </c>
-      <c r="H163" s="13" t="s">
-        <v>13</v>
+      <c r="G163" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" s="13">
+        <v>0</v>
       </c>
       <c r="I163" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>21</v>
       </c>
@@ -4099,20 +4099,20 @@
       <c r="E164" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F164" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G164" s="11">
+      <c r="F164" s="11">
         <v>88088</v>
       </c>
-      <c r="H164" s="11" t="s">
-        <v>13</v>
+      <c r="G164" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" s="11">
+        <v>0</v>
       </c>
       <c r="I164" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="12" t="s">
         <v>22</v>
       </c>
@@ -4123,20 +4123,20 @@
       <c r="E165" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F165" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G165" s="13">
+      <c r="F165" s="13">
         <v>76979</v>
       </c>
-      <c r="H165" s="13" t="s">
-        <v>13</v>
+      <c r="G165" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H165" s="13">
+        <v>0</v>
       </c>
       <c r="I165" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>23</v>
       </c>
@@ -4150,17 +4150,17 @@
       <c r="F166" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G166" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H166" s="11">
+      <c r="G166" s="11">
         <v>4739693</v>
       </c>
+      <c r="H166" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I166" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="12" t="s">
         <v>24</v>
       </c>
@@ -4174,17 +4174,17 @@
       <c r="F167" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G167" s="13" t="s">
-        <v>13</v>
+      <c r="G167" s="13">
+        <v>570865</v>
       </c>
       <c r="H167" s="13">
-        <v>570865</v>
+        <v>373075</v>
       </c>
       <c r="I167" s="13">
-        <v>373075</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+        <v>764841</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>25</v>
       </c>
@@ -4198,17 +4198,17 @@
       <c r="F168" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G168" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H168" s="11">
+      <c r="G168" s="11">
         <v>1438870</v>
       </c>
+      <c r="H168" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I168" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="14" t="s">
         <v>54</v>
       </c>
@@ -4218,19 +4218,19 @@
         <v>0</v>
       </c>
       <c r="F169" s="15">
-        <v>0</v>
+        <v>3754405</v>
       </c>
       <c r="G169" s="15">
-        <v>3754405</v>
+        <v>7518797</v>
       </c>
       <c r="H169" s="15">
-        <v>7518797</v>
+        <v>6364233</v>
       </c>
       <c r="I169" s="15">
-        <v>6364233</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11745004</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
         <v>55</v>
       </c>
@@ -4242,7 +4242,7 @@
       <c r="H170" s="9"/>
       <c r="I170" s="9"/>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="10" t="s">
         <v>11</v>
       </c>
@@ -4256,8 +4256,8 @@
       <c r="F171" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G171" s="11" t="s">
-        <v>13</v>
+      <c r="G171" s="11">
+        <v>0</v>
       </c>
       <c r="H171" s="11">
         <v>0</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="12" t="s">
         <v>16</v>
       </c>
@@ -4277,12 +4277,12 @@
       <c r="E172" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F172" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G172" s="13">
+      <c r="F172" s="13">
         <v>303449</v>
       </c>
+      <c r="G172" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H172" s="13" t="s">
         <v>13</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>17</v>
       </c>
@@ -4301,12 +4301,12 @@
       <c r="E173" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F173" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G173" s="11">
+      <c r="F173" s="11">
         <v>49650</v>
       </c>
+      <c r="G173" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H173" s="11" t="s">
         <v>13</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="12" t="s">
         <v>18</v>
       </c>
@@ -4325,12 +4325,12 @@
       <c r="E174" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F174" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G174" s="13">
+      <c r="F174" s="13">
         <v>5545</v>
       </c>
+      <c r="G174" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H174" s="13" t="s">
         <v>13</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="10" t="s">
         <v>19</v>
       </c>
@@ -4349,12 +4349,12 @@
       <c r="E175" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F175" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G175" s="11">
+      <c r="F175" s="11">
         <v>54717</v>
       </c>
+      <c r="G175" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H175" s="11" t="s">
         <v>13</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="12" t="s">
         <v>21</v>
       </c>
@@ -4373,11 +4373,11 @@
       <c r="E176" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F176" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G176" s="13">
-        <v>0</v>
+      <c r="F176" s="13">
+        <v>0</v>
+      </c>
+      <c r="G176" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H176" s="13" t="s">
         <v>13</v>
@@ -4386,7 +4386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="10" t="s">
         <v>22</v>
       </c>
@@ -4397,12 +4397,12 @@
       <c r="E177" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F177" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G177" s="11">
+      <c r="F177" s="11">
         <v>5620</v>
       </c>
+      <c r="G177" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H177" s="11" t="s">
         <v>13</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="12" t="s">
         <v>23</v>
       </c>
@@ -4424,17 +4424,17 @@
       <c r="F178" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G178" s="13" t="s">
-        <v>13</v>
+      <c r="G178" s="13">
+        <v>965825</v>
       </c>
       <c r="H178" s="13">
-        <v>965825</v>
+        <v>1085411</v>
       </c>
       <c r="I178" s="13">
-        <v>1085411</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-417758</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="s">
         <v>28</v>
       </c>
@@ -4451,14 +4451,14 @@
       <c r="G179" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H179" s="11" t="s">
-        <v>13</v>
+      <c r="H179" s="11">
+        <v>0</v>
       </c>
       <c r="I179" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="12" t="s">
         <v>24</v>
       </c>
@@ -4472,17 +4472,17 @@
       <c r="F180" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G180" s="13" t="s">
-        <v>13</v>
+      <c r="G180" s="13">
+        <v>18674</v>
       </c>
       <c r="H180" s="13">
-        <v>18674</v>
+        <v>32639</v>
       </c>
       <c r="I180" s="13">
-        <v>32639</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2441</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>25</v>
       </c>
@@ -4496,17 +4496,17 @@
       <c r="F181" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G181" s="11" t="s">
-        <v>13</v>
+      <c r="G181" s="11">
+        <v>200174</v>
       </c>
       <c r="H181" s="11">
-        <v>200174</v>
+        <v>215039</v>
       </c>
       <c r="I181" s="11">
-        <v>215039</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-258650</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="14" t="s">
         <v>56</v>
       </c>
@@ -4516,19 +4516,19 @@
         <v>0</v>
       </c>
       <c r="F182" s="15">
-        <v>0</v>
+        <v>418981</v>
       </c>
       <c r="G182" s="15">
-        <v>418981</v>
+        <v>1184673</v>
       </c>
       <c r="H182" s="15">
-        <v>1184673</v>
+        <v>1333089</v>
       </c>
       <c r="I182" s="15">
-        <v>1333089</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-678849</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="16" t="s">
         <v>57</v>
       </c>
@@ -4540,7 +4540,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="18" t="s">
         <v>58</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="14" t="s">
         <v>35</v>
       </c>
@@ -4572,16 +4572,16 @@
         <v>0</v>
       </c>
       <c r="F185" s="15">
-        <v>0</v>
+        <v>4173386</v>
       </c>
       <c r="G185" s="15">
-        <v>4173386</v>
+        <v>8703470</v>
       </c>
       <c r="H185" s="15">
-        <v>8703470</v>
+        <v>7697322</v>
       </c>
       <c r="I185" s="15">
-        <v>7697322</v>
+        <v>11066155</v>
       </c>
     </row>
   </sheetData>
